--- a/biology/Médecine/Prix_Samuel-Torrey-Orton/Prix_Samuel-Torrey-Orton.xlsx
+++ b/biology/Médecine/Prix_Samuel-Torrey-Orton/Prix_Samuel-Torrey-Orton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prix Samuel Torrey Orton (Samuel Torrey Orton Award est une distinction attribuée depuis 1966 par la International Dyslexia Association pour des contributions à la compréhension de la dyslexie.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix reconnaît une personne qui :
 a apporté une contribution vitale à la compréhension scientifique de la dyslexie,
 a significativement amélioré notre capacité à aider avec succès des dyslexiques,
 a étendu la connaissance nationale et internationale de la dyslexie,
-a démontré une compétence et un dévouement exceptionnel concernant la dyslexie[1].
+a démontré une compétence et un dévouement exceptionnel concernant la dyslexie.
 Le prix est décerné en hommage au médecin américain Samuel Orton (en) (1879-1948).
 </t>
         </is>
@@ -548,10 +562,12 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-2021: John Gabrieli[2],[3]
+2021: John Gabrieli,
 2020: R. Malatesha Joshi
 2019: Mark S. Seidenberg
 2018: Richard Wagner
@@ -560,17 +576,17 @@
 2015: Virginia W. Berninger
 2014: Kate Cain
 2013: Louisa Moats
-2012: Sally Shaywitz &amp; Bennett Shaywitz[4]
+2012: Sally Shaywitz &amp; Bennett Shaywitz
 2011: Maryanne Wolf
 2010: Marilyn Jager Adams
 2009: Susan Brady &amp; Hollis Scarborough
 2008: Hugh W. Catts
 2007: Uta Frith
 2006: Joseph Torgesen
-2005: Margaret Snowling[5]
+2005: Margaret Snowling
 2004: Martha Bridge Denckla
 2003: Jack M. Fletcher
-2002: Bruce F. Pennington[6]
+2002: Bruce F. Pennington
 2001: Gordon F. Sherman &amp; Disability Rights Advocates
 2000: G. Reid Lyon
 1999: Howard G. Gardner
@@ -578,7 +594,7 @@
 1997: C. Wilson Anderson, Jr.
 1996: Jeanne S. Chall
 1995: Jeanette Jansky
-1994: Rosa Hagin[7]
+1994: Rosa Hagin
 1993: Lucia R. Karnes
 1992: Sylvia O. Richardson
 1991: Dorothy B. Whitehead &amp; Carolyn et Carl Kline
